--- a/biology/Médecine/Muscle_long_fléchisseur_de_l'hallux/Muscle_long_fléchisseur_de_l'hallux.xlsx
+++ b/biology/Médecine/Muscle_long_fléchisseur_de_l'hallux/Muscle_long_fléchisseur_de_l'hallux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux (ou muscle long fléchisseur propre du gros orteil ou muscle fléchisseur péronier des orteils) est un muscle du membre inférieur situé dans la jambe. Il est contenu dans la partie profonde de la loge crurale postérieure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux est un muscle allongé et épais qui relie la fibula à la phalange distale de l'hallux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux se fixe sur les deux-tiers inférieurs de la face postérieure de la fibula et la moitié inférieure de la membrane interosseuse adjacente.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux forme un corps musculaire bipenné oblique en bas et en dedans qui se transforme en tendon au tiers moyen de jambe.. Celui-ci passe dans le sillon du tendon du muscle long fléchisseur de l’hallux du talus entre les deux tubercules de la face postérieure du talus, puis dans la gouttière calcanéenne sous le sustentaculum tali avant de passer à la face plantaire du pied. Il passe au-dessus du tendon du muscle long fléchisseur des orteils pour se diriger en avant et en dedans vers l'hallux.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon s'insère sur la base de la face plantaire de la phalange distale de l'hallux.
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux est innervé par le nerf tibial, branche de division interne du nerf ischiatique.
 </t>
@@ -648,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,7 +688,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long fléchisseur de l'hallux est vascularisé par des artères collatérales des artères tibiale postérieure et fibulaire.
 </t>
@@ -679,7 +703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_long_fl%C3%A9chisseur_de_l%27hallux</t>
+          <t>Muscle_long_fléchisseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,7 +721,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure des fibres musculaires du muscle long fléchisseur de l'hallux lui confère une capacité limitée de raccourcissement, par contre il a une excellente résistance à la traction. 
 Le muscle long fléchisseur de l'hallux est fléchisseur des deux articulations de l'hallux : les articulations interphalangienne et métatarso-phalangienne de l'hallux.
